--- a/public/file/template-excel-payroll/template-import-payroll_V21.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E6B7CF-54E6-4B80-91D9-965BAC3E3D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F99FF7-4398-4B5C-8183-AC0468760262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,74 +645,6 @@
       <c r="U2" s="2"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
-      </c>
-      <c r="O3">
-        <v>14</v>
-      </c>
-      <c r="P3">
-        <v>15</v>
-      </c>
-      <c r="Q3">
-        <v>16</v>
-      </c>
-      <c r="R3">
-        <v>17</v>
-      </c>
-      <c r="S3">
-        <v>18</v>
-      </c>
-      <c r="T3">
-        <v>19</v>
-      </c>
-      <c r="U3">
-        <v>20</v>
-      </c>
-      <c r="V3">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
